--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H2">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I2">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J2">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>5.088111047427001</v>
+        <v>5.537526717967999</v>
       </c>
       <c r="R2">
-        <v>20.352444189708</v>
+        <v>22.150106871872</v>
       </c>
       <c r="S2">
-        <v>0.01291089741986045</v>
+        <v>0.02868995575955128</v>
       </c>
       <c r="T2">
-        <v>0.009220507139354813</v>
+        <v>0.02193696000983573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H3">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I3">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J3">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>3.052107266470334</v>
+        <v>0.5389822534446668</v>
       </c>
       <c r="R3">
-        <v>18.312643598822</v>
+        <v>3.233893520668</v>
       </c>
       <c r="S3">
-        <v>0.007744611598391913</v>
+        <v>0.002792469958896206</v>
       </c>
       <c r="T3">
-        <v>0.00829639228927526</v>
+        <v>0.003202774291308203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H4">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I4">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J4">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>0.07094212892400001</v>
+        <v>0.01631889254866667</v>
       </c>
       <c r="R4">
-        <v>0.4256527735440001</v>
+        <v>0.097913355292</v>
       </c>
       <c r="S4">
-        <v>0.0001800130816223936</v>
+        <v>8.454827021365954E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001928384817452699</v>
+        <v>9.697115106009021E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H5">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I5">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J5">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>103.6296975140735</v>
+        <v>22.463536327224</v>
       </c>
       <c r="R5">
-        <v>414.5187900562941</v>
+        <v>89.85414530889601</v>
       </c>
       <c r="S5">
-        <v>0.2629566025159687</v>
+        <v>0.1163837027350039</v>
       </c>
       <c r="T5">
-        <v>0.1877943222683572</v>
+        <v>0.08898949353884686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H6">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I6">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J6">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>17.063384630408</v>
+        <v>0.06976571193666666</v>
       </c>
       <c r="R6">
-        <v>102.380307782448</v>
+        <v>0.41859427162</v>
       </c>
       <c r="S6">
-        <v>0.04329772022374122</v>
+        <v>0.0003614565294108494</v>
       </c>
       <c r="T6">
-        <v>0.04638255484394225</v>
+        <v>0.0004145662072870255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H7">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I7">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J7">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>0.1583596742096667</v>
+        <v>0.01777477437866667</v>
       </c>
       <c r="R7">
-        <v>0.9501580452580003</v>
+        <v>0.106648646272</v>
       </c>
       <c r="S7">
-        <v>0.0004018319352910823</v>
+        <v>9.209120181854069E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004304612732581334</v>
+        <v>0.0001056223837611785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.314533</v>
       </c>
       <c r="I8">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J8">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>1.986310629787</v>
+        <v>12.24141854956533</v>
       </c>
       <c r="R8">
-        <v>11.917863778722</v>
+        <v>73.44851129739199</v>
       </c>
       <c r="S8">
-        <v>0.005040191250960762</v>
+        <v>0.0634228554566785</v>
       </c>
       <c r="T8">
-        <v>0.005399289983712808</v>
+        <v>0.07274172826492929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.314533</v>
       </c>
       <c r="I9">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J9">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
         <v>1.191489936074778</v>
@@ -1013,10 +1013,10 @@
         <v>10.723409424673</v>
       </c>
       <c r="S9">
-        <v>0.003023362540256792</v>
+        <v>0.006173115778027293</v>
       </c>
       <c r="T9">
-        <v>0.004858152280718313</v>
+        <v>0.01062021980656322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>1.314533</v>
       </c>
       <c r="I10">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J10">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>0.027694581244</v>
+        <v>0.03607502123744444</v>
       </c>
       <c r="R10">
-        <v>0.249251231196</v>
+        <v>0.324675191137</v>
       </c>
       <c r="S10">
-        <v>7.027399641918E-05</v>
+        <v>0.0001869048793875517</v>
       </c>
       <c r="T10">
-        <v>0.0001129212165042015</v>
+        <v>0.0003215508947815834</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>1.314533</v>
       </c>
       <c r="I11">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J11">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>40.45524317672017</v>
+        <v>49.658550520876</v>
       </c>
       <c r="R11">
-        <v>242.731459060321</v>
+        <v>297.951303125256</v>
       </c>
       <c r="S11">
-        <v>0.1026537137027054</v>
+        <v>0.2572812177870936</v>
       </c>
       <c r="T11">
-        <v>0.1099674874599821</v>
+        <v>0.2950841663810351</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,40 +1169,40 @@
         <v>1.314533</v>
       </c>
       <c r="I12">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J12">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>6.661250502514666</v>
+        <v>0.1542261236327777</v>
       </c>
       <c r="R12">
-        <v>59.951254522632</v>
+        <v>1.388035112695</v>
       </c>
       <c r="S12">
-        <v>0.01690268178589604</v>
+        <v>0.0007990463774439615</v>
       </c>
       <c r="T12">
-        <v>0.02716042187300241</v>
+        <v>0.001374678277426507</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>1.314533</v>
       </c>
       <c r="I13">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J13">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>0.06182088033855555</v>
+        <v>0.03929343619911111</v>
       </c>
       <c r="R13">
-        <v>0.556387923047</v>
+        <v>0.353640925792</v>
       </c>
       <c r="S13">
-        <v>0.0001568682438368126</v>
+        <v>0.0002035795046433513</v>
       </c>
       <c r="T13">
-        <v>0.0002520669639914765</v>
+        <v>0.0003502378969011604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H14">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I14">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J14">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>0.8674285593789999</v>
+        <v>7.755640287061333</v>
       </c>
       <c r="R14">
-        <v>5.204571356273999</v>
+        <v>46.533841722368</v>
       </c>
       <c r="S14">
-        <v>0.002201068538954736</v>
+        <v>0.04018201411124443</v>
       </c>
       <c r="T14">
-        <v>0.002357888168148048</v>
+        <v>0.04608605416093594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H15">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I15">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J15">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>0.5203276784934444</v>
+        <v>0.7548771665991112</v>
       </c>
       <c r="R15">
-        <v>4.682949106441</v>
+        <v>6.793894499392001</v>
       </c>
       <c r="S15">
-        <v>0.001320312630586189</v>
+        <v>0.003911022667096245</v>
       </c>
       <c r="T15">
-        <v>0.002121571505942746</v>
+        <v>0.006728517961846271</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H16">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I16">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J16">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>0.012094317148</v>
+        <v>0.02285559364977778</v>
       </c>
       <c r="R16">
-        <v>0.108848854332</v>
+        <v>0.205700342848</v>
       </c>
       <c r="S16">
-        <v>3.068889153668329E-05</v>
+        <v>0.0001184149538353875</v>
       </c>
       <c r="T16">
-        <v>4.931307655845721E-05</v>
+        <v>0.0002037209220329469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H17">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I17">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J17">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>17.66694130407616</v>
+        <v>31.461538011904</v>
       </c>
       <c r="R17">
-        <v>106.001647824457</v>
+        <v>188.769228071424</v>
       </c>
       <c r="S17">
-        <v>0.0448292234138578</v>
+        <v>0.1630023979406076</v>
       </c>
       <c r="T17">
-        <v>0.04802317311072814</v>
+        <v>0.1869527326095657</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,46 +1535,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H18">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I18">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J18">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>2.908990588082666</v>
+        <v>0.0977110890311111</v>
       </c>
       <c r="R18">
-        <v>26.180915292744</v>
+        <v>0.8793998012799999</v>
       </c>
       <c r="S18">
-        <v>0.007381458212683335</v>
+        <v>0.0005062416786945701</v>
       </c>
       <c r="T18">
-        <v>0.0118610479469421</v>
+        <v>0.0008709374805696571</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H19">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I19">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J19">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>0.02699738719988889</v>
+        <v>0.02489464399644445</v>
       </c>
       <c r="R19">
-        <v>0.242976484799</v>
+        <v>0.224051795968</v>
       </c>
       <c r="S19">
-        <v>6.850489179442774E-05</v>
+        <v>0.0001289792846669742</v>
       </c>
       <c r="T19">
-        <v>0.0001100784943519189</v>
+        <v>0.0002218957821157683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H20">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I20">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J20">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N20">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O20">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P20">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q20">
-        <v>1.190636779401</v>
+        <v>9.886231540444001</v>
       </c>
       <c r="R20">
-        <v>4.762547117604</v>
+        <v>39.544926161776</v>
       </c>
       <c r="S20">
-        <v>0.003021197686110422</v>
+        <v>0.05122061887370886</v>
       </c>
       <c r="T20">
-        <v>0.002157632729025624</v>
+        <v>0.03916439179372101</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H21">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I21">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J21">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P21">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q21">
-        <v>0.7142043741310001</v>
+        <v>0.9622532991948335</v>
       </c>
       <c r="R21">
-        <v>4.285226244786001</v>
+        <v>5.773519795169001</v>
       </c>
       <c r="S21">
-        <v>0.001812267720824203</v>
+        <v>0.004985439527326099</v>
       </c>
       <c r="T21">
-        <v>0.001941386440640908</v>
+        <v>0.00571796215680802</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H22">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I22">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J22">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N22">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O22">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P22">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q22">
-        <v>0.016600720212</v>
+        <v>0.02913436962683334</v>
       </c>
       <c r="R22">
-        <v>0.09960432127200002</v>
+        <v>0.174806217761</v>
       </c>
       <c r="S22">
-        <v>4.212372602624709E-05</v>
+        <v>0.0001509453259997965</v>
       </c>
       <c r="T22">
-        <v>4.512491702905601E-05</v>
+        <v>0.0001731240860676536</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H23">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I23">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J23">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N23">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O23">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P23">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q23">
-        <v>24.2497320023805</v>
+        <v>40.10449658464201</v>
       </c>
       <c r="R23">
-        <v>96.99892800952202</v>
+        <v>160.417986338568</v>
       </c>
       <c r="S23">
-        <v>0.06153281628948837</v>
+        <v>0.2077816128704236</v>
       </c>
       <c r="T23">
-        <v>0.04394456507950228</v>
+        <v>0.1588743102470697</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H24">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I24">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J24">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N24">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O24">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P24">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q24">
-        <v>3.992895031704001</v>
+        <v>0.1245537975558333</v>
       </c>
       <c r="R24">
-        <v>23.957370190224</v>
+        <v>0.7473227853350001</v>
       </c>
       <c r="S24">
-        <v>0.01013182646410007</v>
+        <v>0.0006453138961778665</v>
       </c>
       <c r="T24">
-        <v>0.01085368915989131</v>
+        <v>0.0007401314201852166</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H25">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I25">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J25">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N25">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O25">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P25">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q25">
-        <v>0.03705674870900001</v>
+        <v>0.03173357782933334</v>
       </c>
       <c r="R25">
-        <v>0.222340492254</v>
+        <v>0.190401466976</v>
       </c>
       <c r="S25">
-        <v>9.403015713216105E-05</v>
+        <v>0.0001644118377003399</v>
       </c>
       <c r="T25">
-        <v>0.0001007295279665908</v>
+        <v>0.0001885692647456545</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H26">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I26">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J26">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N26">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O26">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P26">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q26">
-        <v>4.766700963815</v>
+        <v>1.892990772008</v>
       </c>
       <c r="R26">
-        <v>28.60020578288999</v>
+        <v>11.357944632048</v>
       </c>
       <c r="S26">
-        <v>0.01209533097869133</v>
+        <v>0.009807595388375367</v>
       </c>
       <c r="T26">
-        <v>0.01295708756894704</v>
+        <v>0.01124864898523661</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H27">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I27">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J27">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.157581</v>
       </c>
       <c r="O27">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P27">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q27">
-        <v>2.859309184320555</v>
+        <v>0.1842498436596667</v>
       </c>
       <c r="R27">
-        <v>25.733782658885</v>
+        <v>1.658248592937</v>
       </c>
       <c r="S27">
-        <v>0.007255393450796573</v>
+        <v>0.0009545994326578748</v>
       </c>
       <c r="T27">
-        <v>0.01165847819147163</v>
+        <v>0.001642291537465208</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H28">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I28">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J28">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N28">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O28">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P28">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q28">
-        <v>0.06646079677999998</v>
+        <v>0.005578575883666667</v>
       </c>
       <c r="R28">
-        <v>0.5981471710199999</v>
+        <v>0.05020718295300001</v>
       </c>
       <c r="S28">
-        <v>0.0001686418636839082</v>
+        <v>2.890263170819093E-05</v>
       </c>
       <c r="T28">
-        <v>0.0002709856471963096</v>
+        <v>4.972404742864268E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H29">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I29">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J29">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N29">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O29">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P29">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q29">
-        <v>97.08352950944082</v>
+        <v>7.679108226444001</v>
       </c>
       <c r="R29">
-        <v>582.5011770566449</v>
+        <v>46.074649358664</v>
       </c>
       <c r="S29">
-        <v>0.2463459383985406</v>
+        <v>0.03978550109286493</v>
       </c>
       <c r="T29">
-        <v>0.2638973585516284</v>
+        <v>0.0456312805303767</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H30">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I30">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J30">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N30">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O30">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P30">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q30">
-        <v>15.98551038009333</v>
+        <v>0.02384924816166666</v>
       </c>
       <c r="R30">
-        <v>143.86959342084</v>
+        <v>0.214643233455</v>
       </c>
       <c r="S30">
-        <v>0.04056265336934169</v>
+        <v>0.0001235630832148574</v>
       </c>
       <c r="T30">
-        <v>0.06517893383752656</v>
+        <v>0.0002125777566637188</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H31">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I31">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J31">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,400 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N31">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O31">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P31">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q31">
-        <v>0.1483562769461111</v>
+        <v>0.006076265738666667</v>
       </c>
       <c r="R31">
-        <v>1.335206492515</v>
+        <v>0.054686391648</v>
       </c>
       <c r="S31">
-        <v>0.0003764486771986336</v>
+        <v>3.148116552828003E-05</v>
       </c>
       <c r="T31">
-        <v>0.0006049042995520475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.083641</v>
-      </c>
-      <c r="I32">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J32">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>4.533117</v>
-      </c>
-      <c r="N32">
-        <v>9.066234</v>
-      </c>
-      <c r="O32">
-        <v>0.0394235894695292</v>
-      </c>
-      <c r="P32">
-        <v>0.03654333378744622</v>
-      </c>
-      <c r="Q32">
-        <v>1.637423812999</v>
-      </c>
-      <c r="R32">
-        <v>9.824542877994</v>
-      </c>
-      <c r="S32">
-        <v>0.004154903594951493</v>
-      </c>
-      <c r="T32">
-        <v>0.004450928198257884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.083641</v>
-      </c>
-      <c r="I33">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J33">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.719193666666667</v>
-      </c>
-      <c r="N33">
-        <v>8.157581</v>
-      </c>
-      <c r="O33">
-        <v>0.02364827000997559</v>
-      </c>
-      <c r="P33">
-        <v>0.03288081968556397</v>
-      </c>
-      <c r="Q33">
-        <v>0.9822099147134447</v>
-      </c>
-      <c r="R33">
-        <v>8.839889232421001</v>
-      </c>
-      <c r="S33">
-        <v>0.002492322069119916</v>
-      </c>
-      <c r="T33">
-        <v>0.004004838977515112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.083641</v>
-      </c>
-      <c r="I34">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J34">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.063204</v>
-      </c>
-      <c r="N34">
-        <v>0.189612</v>
-      </c>
-      <c r="O34">
-        <v>0.0005496722341011987</v>
-      </c>
-      <c r="P34">
-        <v>0.0007642704353434132</v>
-      </c>
-      <c r="Q34">
-        <v>0.022830148588</v>
-      </c>
-      <c r="R34">
-        <v>0.205471337292</v>
-      </c>
-      <c r="S34">
-        <v>5.793067481278648E-05</v>
-      </c>
-      <c r="T34">
-        <v>9.308709631011884E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.083641</v>
-      </c>
-      <c r="I35">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J35">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>92.32611850000001</v>
-      </c>
-      <c r="N35">
-        <v>184.652237</v>
-      </c>
-      <c r="O35">
-        <v>0.802941330007389</v>
-      </c>
-      <c r="P35">
-        <v>0.7442790833867324</v>
-      </c>
-      <c r="Q35">
-        <v>33.34945579248618</v>
-      </c>
-      <c r="R35">
-        <v>200.096734754917</v>
-      </c>
-      <c r="S35">
-        <v>0.08462303568682822</v>
-      </c>
-      <c r="T35">
-        <v>0.09065217691653424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.083641</v>
-      </c>
-      <c r="I36">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J36">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>15.202168</v>
-      </c>
-      <c r="N36">
-        <v>45.606504</v>
-      </c>
-      <c r="O36">
-        <v>0.1322101393541825</v>
-      </c>
-      <c r="P36">
-        <v>0.1838264596469164</v>
-      </c>
-      <c r="Q36">
-        <v>5.491230844562668</v>
-      </c>
-      <c r="R36">
-        <v>49.42107760106401</v>
-      </c>
-      <c r="S36">
-        <v>0.01393379929842017</v>
-      </c>
-      <c r="T36">
-        <v>0.02238981198561178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.083641</v>
-      </c>
-      <c r="I37">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J37">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.1410863333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.4232590000000001</v>
-      </c>
-      <c r="O37">
-        <v>0.001226998924822476</v>
-      </c>
-      <c r="P37">
-        <v>0.001706033057997478</v>
-      </c>
-      <c r="Q37">
-        <v>0.0509623117798889</v>
-      </c>
-      <c r="R37">
-        <v>0.4586608060190001</v>
-      </c>
-      <c r="S37">
-        <v>0.0001293150195693585</v>
-      </c>
-      <c r="T37">
-        <v>0.0002077924988773105</v>
+        <v>5.416015342967973E-05</v>
       </c>
     </row>
   </sheetData>
